--- a/FogliCalcolo/Coclea/Coclea.xlsx
+++ b/FogliCalcolo/Coclea/Coclea.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\Impianti meccanici\MaterialeEsame\FogliCalcolo\Coclea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF68D40-3163-4938-977A-621C45E64AC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFBF701-47A1-4331-A2DC-7393691AE4B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17040" yWindow="3885" windowWidth="21600" windowHeight="11385" xr2:uid="{9673A59A-D298-4A4C-A537-28E68921EDCD}"/>
+    <workbookView xWindow="7200" yWindow="3885" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{9673A59A-D298-4A4C-A537-28E68921EDCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Design1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="46">
   <si>
     <t>Q</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>tab CCCXXII</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>m/s</t>
   </si>
 </sst>
 </file>
@@ -390,15 +396,6 @@
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -412,31 +409,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -751,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94BAE0A-8159-45C5-ACCE-6B91B37B7B6D}">
-  <dimension ref="B1:J34"/>
+  <dimension ref="B1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,461 +772,474 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>44</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="3"/>
+      <c r="G3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f>C3</f>
         <v>44</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>650</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <f>C30</f>
         <v>2089.8949929471864</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>0.3</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="7">
-        <f>C34</f>
-        <v>1018.1811177238756</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="4">
+        <f>C35</f>
+        <v>2036.3622354477511</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>0.3</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="5">
         <f>C21</f>
         <v>73.892766656572704</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="8">
         <f>B21</f>
         <v>0.6</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="16">
         <f>C3*240/(3.6*C6*C7*C5*PI())</f>
         <v>15.960837597819705</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="14" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="G10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="12">
         <v>8</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="24">
+      <c r="B11" s="17">
         <v>0.1</v>
       </c>
-      <c r="C11" s="8">
-        <f>$C$9/(B11^3)</f>
+      <c r="C11" s="5">
+        <f t="shared" ref="C11:C21" si="0">$C$9/(B11^3)</f>
         <v>15960.8375978197</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="17" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="G11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <f>TRUNC(I10/C3*60)</f>
         <v>10</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24">
+      <c r="B12" s="17">
         <v>0.15</v>
       </c>
-      <c r="C12" s="8">
-        <f>$C$9/(B12^3)</f>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
         <v>4729.137066020653</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="19">
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="14">
         <f>(I10/C3*60-TRUNC(I10/C3*60))*60</f>
         <v>54.545454545454604</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="24">
+      <c r="B13" s="17">
         <v>0.2</v>
       </c>
-      <c r="C13" s="8">
-        <f>$C$9/(B13^3)</f>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
         <v>1995.1046997274625</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="24">
+      <c r="B14" s="17">
         <v>0.25</v>
       </c>
-      <c r="C14" s="8">
-        <f>$C$9/(B14^3)</f>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
         <v>1021.4936062604611</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="24">
+      <c r="B15" s="17">
         <v>0.3</v>
       </c>
-      <c r="C15" s="8">
-        <f>$C$9/(B15^3)</f>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
         <v>591.14213325258163</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="24">
+      <c r="B16" s="17">
         <v>0.35</v>
       </c>
-      <c r="C16" s="8">
-        <f>$C$9/(B16^3)</f>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
         <v>372.26443376838972</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="24">
+      <c r="B17" s="17">
         <v>0.4</v>
       </c>
-      <c r="C17" s="8">
-        <f>$C$9/(B17^3)</f>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
         <v>249.38808746593281</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="24">
+      <c r="B18" s="17">
         <v>0.45</v>
       </c>
-      <c r="C18" s="8">
-        <f>$C$9/(B18^3)</f>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
         <v>175.15322466743157</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
+      <c r="B19" s="17">
         <v>0.5</v>
       </c>
-      <c r="C19" s="8">
-        <f>$C$9/(B19^3)</f>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
         <v>127.68670078255764</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="31">
+      <c r="B20" s="23">
         <v>0.6</v>
       </c>
-      <c r="C20" s="32">
-        <f>$C$9/(B20^3)</f>
+      <c r="C20" s="24">
+        <f t="shared" si="0"/>
         <v>73.892766656572704</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25">
+      <c r="B21" s="18">
         <v>0.6</v>
       </c>
-      <c r="C21" s="26">
-        <f>$C$9/(B21^3)</f>
+      <c r="C21" s="19">
+        <f t="shared" si="0"/>
         <v>73.892766656572704</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="33"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="2">
         <v>0.39</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="2">
         <v>0.8</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="5">
         <f>2.86*(C24+C25*C3/C21)*C4*9.81</f>
         <v>194.45826941830296</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="5">
         <f>2*PI()*C21/60</f>
         <v>7.7380324293904543</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="2">
         <v>0.9</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="2">
         <v>0.8</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="14">
         <f>C26*C27/(C28*C29)</f>
         <v>2089.8949929471864</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="5">
         <f>C26*C27</f>
         <v>1504.7243949219744</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="9" t="s">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="5">
+        <f>C21*B21/60</f>
+        <v>0.73892766656572706</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="28">
-        <f>30*C26*C27/(C21*B21)</f>
-        <v>1018.1811177238756</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="C35" s="14">
+        <f>C33/C34</f>
+        <v>2036.3622354477511</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="12"/>
+      <c r="E35" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1229,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178C56C0-394B-4C0F-8E57-1F85ECB67C53}">
-  <dimension ref="B1:J34"/>
+  <dimension ref="B1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,459 +1263,472 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="3"/>
+      <c r="G3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f>C3</f>
         <v>8</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>650</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <f>C30</f>
         <v>507.22364217451872</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>0.3</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="7">
-        <f>C34</f>
-        <v>462.48360208703087</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="4">
+        <f>C35</f>
+        <v>924.96720417406186</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>0.3</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="5">
         <f>C21</f>
         <v>67.684442503343575</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="8">
         <f>B21</f>
         <v>0.35</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="16">
         <f>C3*240/(3.6*C6*C7*C5*PI())</f>
         <v>2.9019704723308553</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="14" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="G10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="12">
         <v>8</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="24">
+      <c r="B11" s="17">
         <v>0.1</v>
       </c>
-      <c r="C11" s="8">
-        <f>$C$9/(B11^3)</f>
+      <c r="C11" s="5">
+        <f t="shared" ref="C11:C21" si="0">$C$9/(B11^3)</f>
         <v>2901.9704723308546</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="17" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="G11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <f>TRUNC(I10/C3*60)</f>
         <v>60</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24">
+      <c r="B12" s="17">
         <v>0.15</v>
       </c>
-      <c r="C12" s="8">
-        <f>$C$9/(B12^3)</f>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
         <v>859.84310291284601</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="19">
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="14">
         <f>(I10/C3*60-TRUNC(I10/C3*60))*60</f>
         <v>0</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="24">
+      <c r="B13" s="17">
         <v>0.2</v>
       </c>
-      <c r="C13" s="8">
-        <f>$C$9/(B13^3)</f>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
         <v>362.74630904135682</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="24">
+      <c r="B14" s="17">
         <v>0.25</v>
       </c>
-      <c r="C14" s="8">
-        <f>$C$9/(B14^3)</f>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
         <v>185.72611022917474</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="24">
+      <c r="B15" s="17">
         <v>0.3</v>
       </c>
-      <c r="C15" s="8">
-        <f>$C$9/(B15^3)</f>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
         <v>107.48038786410575</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="24">
+      <c r="B16" s="17">
         <v>0.35</v>
       </c>
-      <c r="C16" s="8">
-        <f>$C$9/(B16^3)</f>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
         <v>67.684442503343575</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="24">
+      <c r="B17" s="17">
         <v>0.4</v>
       </c>
-      <c r="C17" s="8">
-        <f>$C$9/(B17^3)</f>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
         <v>45.343288630169603</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="24">
+      <c r="B18" s="17">
         <v>0.45</v>
       </c>
-      <c r="C18" s="8">
-        <f>$C$9/(B18^3)</f>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
         <v>31.846040848623922</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
+      <c r="B19" s="17">
         <v>0.5</v>
       </c>
-      <c r="C19" s="8">
-        <f>$C$9/(B19^3)</f>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
         <v>23.215763778646842</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="31">
+      <c r="B20" s="23">
         <v>0.6</v>
       </c>
-      <c r="C20" s="32">
-        <f>$C$9/(B20^3)</f>
+      <c r="C20" s="24">
+        <f t="shared" si="0"/>
         <v>13.435048483013219</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25">
+      <c r="B21" s="18">
         <v>0.35</v>
       </c>
-      <c r="C21" s="26">
-        <f>$C$9/(B21^3)</f>
+      <c r="C21" s="19">
+        <f t="shared" si="0"/>
         <v>67.684442503343575</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="2">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="2">
         <v>0.8</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="5">
         <f>2.86*(C24+C25*C3/C21)*C4*9.81</f>
         <v>51.524585959767322</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="5">
         <f>2*PI()*C21/60</f>
         <v>7.0878982443608303</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="2">
         <v>0.9</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="2">
         <v>0.8</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="14">
         <f>C26*C27/(C28*C29)</f>
         <v>507.22364217451872</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="5">
         <f>C26*C27</f>
         <v>365.2010223656535</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="9" t="s">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="5">
+        <f>C21*B21/60</f>
+        <v>0.3948259146028375</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="28">
-        <f>30*C26*C27/(C21*B21)</f>
-        <v>462.48360208703087</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="C35" s="14">
+        <f>C33/C34</f>
+        <v>924.96720417406186</v>
+      </c>
+      <c r="D35" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="12"/>
+      <c r="E35" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1705,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F445C9BA-8079-4DF4-9721-D0B0A04C9A74}">
-  <dimension ref="B1:J34"/>
+  <dimension ref="B1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,460 +1752,473 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="3"/>
+      <c r="G3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f>C3</f>
         <v>8</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>650</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <f>C30</f>
         <v>379.98090780857939</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>0.3</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="7">
-        <f>C34</f>
-        <v>1018.1811177238756</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="4">
+        <f>C35</f>
+        <v>2036.3622354477516</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>0.3</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="5">
         <f>C21</f>
         <v>13.435048483013219</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="8">
         <f>B21</f>
         <v>0.6</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="16">
         <f>C3*240/(3.6*C6*C7*C5*PI())</f>
         <v>2.9019704723308553</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="14" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="G10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="12">
         <v>8</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="24">
+      <c r="B11" s="17">
         <v>0.1</v>
       </c>
-      <c r="C11" s="8">
-        <f>$C$9/(B11^3)</f>
+      <c r="C11" s="5">
+        <f t="shared" ref="C11:C21" si="0">$C$9/(B11^3)</f>
         <v>2901.9704723308546</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="17" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="G11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <f>TRUNC(I10/C3*60)</f>
         <v>60</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24">
+      <c r="B12" s="17">
         <v>0.15</v>
       </c>
-      <c r="C12" s="8">
-        <f>$C$9/(B12^3)</f>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
         <v>859.84310291284601</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="19">
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="14">
         <f>(I10/C3*60-TRUNC(I10/C3*60))*60</f>
         <v>0</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="24">
+      <c r="B13" s="17">
         <v>0.2</v>
       </c>
-      <c r="C13" s="8">
-        <f>$C$9/(B13^3)</f>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
         <v>362.74630904135682</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="24">
+      <c r="B14" s="17">
         <v>0.25</v>
       </c>
-      <c r="C14" s="8">
-        <f>$C$9/(B14^3)</f>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
         <v>185.72611022917474</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="24">
+      <c r="B15" s="17">
         <v>0.3</v>
       </c>
-      <c r="C15" s="8">
-        <f>$C$9/(B15^3)</f>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
         <v>107.48038786410575</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="G15" s="33"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="24">
+      <c r="B16" s="17">
         <v>0.35</v>
       </c>
-      <c r="C16" s="8">
-        <f>$C$9/(B16^3)</f>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
         <v>67.684442503343575</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="24">
+      <c r="B17" s="17">
         <v>0.4</v>
       </c>
-      <c r="C17" s="8">
-        <f>$C$9/(B17^3)</f>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
         <v>45.343288630169603</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="24">
+      <c r="B18" s="17">
         <v>0.45</v>
       </c>
-      <c r="C18" s="8">
-        <f>$C$9/(B18^3)</f>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
         <v>31.846040848623922</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
+      <c r="B19" s="17">
         <v>0.5</v>
       </c>
-      <c r="C19" s="8">
-        <f>$C$9/(B19^3)</f>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
         <v>23.215763778646842</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="31">
+      <c r="B20" s="23">
         <v>0.6</v>
       </c>
-      <c r="C20" s="32">
-        <f>$C$9/(B20^3)</f>
+      <c r="C20" s="24">
+        <f t="shared" si="0"/>
         <v>13.435048483013219</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25">
+      <c r="B21" s="18">
         <v>0.6</v>
       </c>
-      <c r="C21" s="26">
-        <f>$C$9/(B21^3)</f>
+      <c r="C21" s="19">
+        <f t="shared" si="0"/>
         <v>13.435048483013219</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="2">
         <v>0.39</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="2">
         <v>0.8</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="5">
         <f>2.86*(C24+C25*C3/C21)*C4*9.81</f>
         <v>194.45826941830296</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="5">
         <f>2*PI()*C21/60</f>
         <v>1.4069149871619009</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="2">
         <v>0.9</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="2">
         <v>0.8</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="14">
         <f>C26*C27/(C28*C29)</f>
         <v>379.98090780857939</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="5">
         <f>C26*C27</f>
         <v>273.5862536221772</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="9" t="s">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="5">
+        <f>C21*B21/60</f>
+        <v>0.13435048483013218</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="28">
-        <f>30*C26*C27/(C21*B21)</f>
-        <v>1018.1811177238756</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="C35" s="14">
+        <f>C33/C34</f>
+        <v>2036.3622354477516</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="12"/>
+      <c r="E35" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/FogliCalcolo/Coclea/Coclea.xlsx
+++ b/FogliCalcolo/Coclea/Coclea.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\Impianti meccanici\MaterialeEsame\FogliCalcolo\Coclea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFBF701-47A1-4331-A2DC-7393691AE4B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AC216E-91C5-48B9-BA3D-6C9D2699FC6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3885" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{9673A59A-D298-4A4C-A537-28E68921EDCD}"/>
+    <workbookView xWindow="7200" yWindow="3885" windowWidth="21600" windowHeight="11385" xr2:uid="{9673A59A-D298-4A4C-A537-28E68921EDCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Design1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="50">
   <si>
     <t>Q</t>
   </si>
@@ -201,6 +201,44 @@
   <si>
     <t>m/s</t>
   </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>Leff</t>
+  </si>
 </sst>
 </file>
 
@@ -209,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +279,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -394,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -421,6 +467,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,7 +489,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -757,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94BAE0A-8159-45C5-ACCE-6B91B37B7B6D}">
-  <dimension ref="B1:J35"/>
+  <dimension ref="B1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,11 +826,11 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -790,12 +844,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -840,8 +894,8 @@
         <v>11</v>
       </c>
       <c r="I5" s="4">
-        <f>C30</f>
-        <v>2089.8949929471864</v>
+        <f>C33</f>
+        <v>2742.9871782431824</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>15</v>
@@ -865,8 +919,8 @@
         <v>17</v>
       </c>
       <c r="I6" s="4">
-        <f>C35</f>
-        <v>2036.3622354477511</v>
+        <f>C38</f>
+        <v>2672.7254340251734</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>19</v>
@@ -955,10 +1009,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="32" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4">
@@ -979,8 +1033,8 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="32"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="14">
         <f>(I10/C3*60-TRUNC(I10/C3*60))*60</f>
         <v>54.545454545454604</v>
@@ -1094,152 +1148,188 @@
       <c r="F22" s="25"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B24" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="35">
+        <v>3500</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B25" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="35">
+        <f>_xlfn.CEILING.MATH(C4*1000/C24)</f>
+        <v>3</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="35">
+        <f>C24*C25/1000</f>
+        <v>10.5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C27" s="2">
         <v>0.39</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C28" s="2">
         <v>0.8</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3" t="s">
+      <c r="D28" s="36"/>
+      <c r="E28" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="5">
-        <f>2.86*(C24+C25*C3/C21)*C4*9.81</f>
-        <v>194.45826941830296</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C29" s="5">
+        <f>2.86*(C27+C28*C3/C21)*C26*9.81</f>
+        <v>255.22647861152265</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C30" s="5">
         <f>2*PI()*C21/60</f>
         <v>7.7380324293904543</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C31" s="2">
         <v>0.9</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C32" s="2">
         <v>0.8</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="14">
-        <f>C26*C27/(C28*C29)</f>
-        <v>2089.8949929471864</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="C33" s="14">
+        <f>C29*C30/(C31*C32)</f>
+        <v>2742.9871782431824</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="26" t="s">
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="C35" s="28"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="5">
-        <f>C26*C27</f>
-        <v>1504.7243949219744</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C36" s="5">
+        <f>C29*C30</f>
+        <v>1974.9507683350914</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C37" s="5">
         <f>C21*B21/60</f>
         <v>0.73892766656572706</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="6" t="s">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="14">
-        <f>C33/C34</f>
-        <v>2036.3622354477511</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="C38" s="14">
+        <f>C36/C37</f>
+        <v>2672.7254340251734</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1248,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178C56C0-394B-4C0F-8E57-1F85ECB67C53}">
-  <dimension ref="B1:J35"/>
+  <dimension ref="B1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,11 +1353,11 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -1281,12 +1371,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1331,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="4">
-        <f>C30</f>
+        <f>C33</f>
         <v>507.22364217451872</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1356,7 +1446,7 @@
         <v>17</v>
       </c>
       <c r="I6" s="4">
-        <f>C35</f>
+        <f>C38</f>
         <v>924.96720417406186</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -1446,10 +1536,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="32" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4">
@@ -1470,8 +1560,8 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="32"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="14">
         <f>(I10/C3*60-TRUNC(I10/C3*60))*60</f>
         <v>0</v>
@@ -1583,147 +1673,183 @@
     </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B24" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="35">
+        <v>3500</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B25" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="35">
+        <f>_xlfn.CEILING.MATH(C4*1000/C24)</f>
+        <v>3</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="35">
+        <f>C24*C25/1000</f>
+        <v>10.5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C27" s="2">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C28" s="2">
         <v>0.8</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="5">
-        <f>2.86*(C24+C25*C3/C21)*C4*9.81</f>
+      <c r="C29" s="5">
+        <f>2.86*(C27+C28*C3/C21)*C4*9.81</f>
         <v>51.524585959767322</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C30" s="5">
         <f>2*PI()*C21/60</f>
         <v>7.0878982443608303</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C31" s="2">
         <v>0.9</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C32" s="2">
         <v>0.8</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="14">
-        <f>C26*C27/(C28*C29)</f>
+      <c r="C33" s="14">
+        <f>C29*C30/(C31*C32)</f>
         <v>507.22364217451872</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="26" t="s">
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="C35" s="28"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="5">
-        <f>C26*C27</f>
+      <c r="C36" s="5">
+        <f>C29*C30</f>
         <v>365.2010223656535</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C37" s="5">
         <f>C21*B21/60</f>
         <v>0.3948259146028375</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="6" t="s">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="14">
-        <f>C33/C34</f>
+      <c r="C38" s="14">
+        <f>C36/C37</f>
         <v>924.96720417406186</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D38" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G11:G12"/>
@@ -1737,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F445C9BA-8079-4DF4-9721-D0B0A04C9A74}">
-  <dimension ref="B1:J35"/>
+  <dimension ref="B1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,11 +1878,11 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -1770,12 +1896,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1820,7 +1946,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="4">
-        <f>C30</f>
+        <f>C33</f>
         <v>379.98090780857939</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1845,7 +1971,7 @@
         <v>17</v>
       </c>
       <c r="I6" s="4">
-        <f>C35</f>
+        <f>C38</f>
         <v>2036.3622354477516</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -1935,10 +2061,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="32" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4">
@@ -1959,8 +2085,8 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="32"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="14">
         <f>(I10/C3*60-TRUNC(I10/C3*60))*60</f>
         <v>0</v>
@@ -2073,147 +2199,183 @@
     </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B24" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="35">
+        <v>3500</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B25" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="35">
+        <f>_xlfn.CEILING.MATH(C4*1000/C24)</f>
+        <v>3</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="35">
+        <f>C24*C25/1000</f>
+        <v>10.5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C27" s="2">
         <v>0.39</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C28" s="2">
         <v>0.8</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="5">
-        <f>2.86*(C24+C25*C3/C21)*C4*9.81</f>
+      <c r="C29" s="5">
+        <f>2.86*(C27+C28*C3/C21)*C4*9.81</f>
         <v>194.45826941830296</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C30" s="5">
         <f>2*PI()*C21/60</f>
         <v>1.4069149871619009</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C31" s="2">
         <v>0.9</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C32" s="2">
         <v>0.8</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="14">
-        <f>C26*C27/(C28*C29)</f>
+      <c r="C33" s="14">
+        <f>C29*C30/(C31*C32)</f>
         <v>379.98090780857939</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="26" t="s">
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="C35" s="28"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="5">
-        <f>C26*C27</f>
+      <c r="C36" s="5">
+        <f>C29*C30</f>
         <v>273.5862536221772</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C37" s="5">
         <f>C21*B21/60</f>
         <v>0.13435048483013218</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="6" t="s">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="14">
-        <f>C33/C34</f>
+      <c r="C38" s="14">
+        <f>C36/C37</f>
         <v>2036.3622354477516</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G11:G12"/>

--- a/FogliCalcolo/Coclea/Coclea.xlsx
+++ b/FogliCalcolo/Coclea/Coclea.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\Impianti meccanici\MaterialeEsame\FogliCalcolo\Coclea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giona\Desktop\git\ImpiantiMeccanici\FogliCalcolo\Coclea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AC216E-91C5-48B9-BA3D-6C9D2699FC6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A22C4F-5687-42F4-B7F0-9F1E84115927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3885" windowWidth="21600" windowHeight="11385" xr2:uid="{9673A59A-D298-4A4C-A537-28E68921EDCD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9673A59A-D298-4A4C-A537-28E68921EDCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Design1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="51">
   <si>
     <t>Q</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>Dati</t>
-  </si>
-  <si>
-    <t>coeff riempimento</t>
   </si>
   <si>
     <t>coeff pendenza</t>
@@ -238,6 +235,12 @@
   </si>
   <si>
     <t>Leff</t>
+  </si>
+  <si>
+    <t>coeff riempimento (in funz del materiale)</t>
+  </si>
+  <si>
+    <t>lunghezza troncone coclea</t>
   </si>
 </sst>
 </file>
@@ -468,6 +471,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,14 +500,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -813,24 +816,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94BAE0A-8159-45C5-ACCE-6B91B37B7B6D}">
   <dimension ref="B1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -844,12 +847,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -878,13 +881,13 @@
     </row>
     <row r="5" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2">
         <v>650</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="1" t="s">
@@ -910,7 +913,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
@@ -935,7 +938,7 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>26</v>
@@ -968,7 +971,7 @@
     </row>
     <row r="9" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="16">
         <f>C3*240/(3.6*C6*C7*C5*PI())</f>
@@ -979,10 +982,10 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>41</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -1004,15 +1007,15 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" ref="C11:C21" si="0">$C$9/(B11^3)</f>
+        <f>$C$9/(B11^3)</f>
         <v>15960.8375978197</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="36" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4">
@@ -1028,13 +1031,13 @@
         <v>0.15</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C11:C21" si="0">$C$9/(B12^3)</f>
         <v>4729.137066020653</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="33"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="14">
         <f>(I10/C3*60-TRUNC(I10/C3*60))*60</f>
         <v>54.545454545454604</v>
@@ -1141,37 +1144,39 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="25"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
     </row>
     <row r="24" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B24" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="35">
+      <c r="B24" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="28">
         <v>3500</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B25" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B25" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="35">
+      <c r="C25" s="28">
         <f>_xlfn.CEILING.MATH(C4*1000/C24)</f>
         <v>3</v>
       </c>
@@ -1179,10 +1184,10 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="35">
+      <c r="B26" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="28">
         <f>C24*C25/1000</f>
         <v>10.5</v>
       </c>
@@ -1200,7 +1205,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -1210,9 +1215,9 @@
       <c r="C28" s="2">
         <v>0.8</v>
       </c>
-      <c r="D28" s="36"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -1276,10 +1281,10 @@
     </row>
     <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="28"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="12"/>
       <c r="E35" s="13"/>
     </row>
@@ -1298,14 +1303,14 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="5">
         <f>C21*B21/60</f>
         <v>0.73892766656572706</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" s="3"/>
     </row>
@@ -1340,24 +1345,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178C56C0-394B-4C0F-8E57-1F85ECB67C53}">
   <dimension ref="B1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -1371,12 +1376,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1405,13 +1410,13 @@
     </row>
     <row r="5" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2">
         <v>650</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="1" t="s">
@@ -1437,7 +1442,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
@@ -1462,7 +1467,7 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>26</v>
@@ -1495,7 +1500,7 @@
     </row>
     <row r="9" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="16">
         <f>C3*240/(3.6*C6*C7*C5*PI())</f>
@@ -1506,10 +1511,10 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>41</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -1536,10 +1541,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="36" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4">
@@ -1560,8 +1565,8 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="33"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="14">
         <f>(I10/C3*60-TRUNC(I10/C3*60))*60</f>
         <v>0</v>
@@ -1668,53 +1673,55 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B24" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="35">
+      <c r="B24" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="28">
         <v>3500</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B25" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="37"/>
-    </row>
-    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B25" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="35">
+      <c r="C25" s="28">
         <f>_xlfn.CEILING.MATH(C4*1000/C24)</f>
         <v>3</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="37"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="35">
+      <c r="B26" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="28">
         <f>C24*C25/1000</f>
         <v>10.5</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
@@ -1725,7 +1732,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -1737,7 +1744,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -1801,10 +1808,10 @@
     </row>
     <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="28"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="12"/>
       <c r="E35" s="13"/>
     </row>
@@ -1823,14 +1830,14 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="5">
         <f>C21*B21/60</f>
         <v>0.3948259146028375</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" s="3"/>
     </row>
@@ -1865,24 +1872,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F445C9BA-8079-4DF4-9721-D0B0A04C9A74}">
   <dimension ref="B1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -1896,12 +1903,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1930,13 +1937,13 @@
     </row>
     <row r="5" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2">
         <v>650</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="1" t="s">
@@ -1962,7 +1969,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
@@ -1987,7 +1994,7 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>26</v>
@@ -2020,7 +2027,7 @@
     </row>
     <row r="9" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="16">
         <f>C3*240/(3.6*C6*C7*C5*PI())</f>
@@ -2031,10 +2038,10 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>41</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -2061,10 +2068,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="36" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4">
@@ -2085,8 +2092,8 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="33"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="14">
         <f>(I10/C3*60-TRUNC(I10/C3*60))*60</f>
         <v>0</v>
@@ -2194,35 +2201,37 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B24" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="35">
+      <c r="B24" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="28">
         <v>3500</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B25" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B25" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="35">
+      <c r="C25" s="28">
         <f>_xlfn.CEILING.MATH(C4*1000/C24)</f>
         <v>3</v>
       </c>
@@ -2230,10 +2239,10 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="35">
+      <c r="B26" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="28">
         <f>C24*C25/1000</f>
         <v>10.5</v>
       </c>
@@ -2251,7 +2260,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -2263,7 +2272,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -2327,10 +2336,10 @@
     </row>
     <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="28"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="12"/>
       <c r="E35" s="13"/>
     </row>
@@ -2349,14 +2358,14 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="5">
         <f>C21*B21/60</f>
         <v>0.13435048483013218</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" s="3"/>
     </row>
